--- a/+aae550/+hw1/partII_c.xlsx
+++ b/+aae550/+hw1/partII_c.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>Minimization</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:Q87"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,1066 +4065,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>3.3881317890172014E-13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F68">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G68">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H68">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I68">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J68">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K68">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L68">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M68">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N68">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O68">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>1.6940658945086007E-13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F69">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G69">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H69">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I69">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J69">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K69">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L69">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M69">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N69">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O69">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>8.4703294725430034E-14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F70">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G70">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H70">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I70">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J70">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K70">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L70">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M70">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N70">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O70">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>4.2351647362715017E-14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F71">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G71">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H71">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I71">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J71">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K71">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L71">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M71">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N71">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O71">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>2.1175823681357508E-14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F72">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G72">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H72">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I72">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J72">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K72">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L72">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M72">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N72">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O72">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>1.0587911840678754E-14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F73">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G73">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H73">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I73">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J73">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K73">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L73">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M73">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N73">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O73">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>5.2939559203393771E-15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F74">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G74">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H74">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I74">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J74">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K74">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L74">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M74">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N74">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O74">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>2.6469779601696886E-15</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F75">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G75">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H75">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I75">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J75">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K75">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L75">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M75">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N75">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O75">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>1.3234889800848443E-15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F76">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G76">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H76">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I76">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J76">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K76">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L76">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M76">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N76">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O76">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>6.6174449004242214E-16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F77">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G77">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H77">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I77">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J77">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K77">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L77">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M77">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N77">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O77">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>3.3087224502121107E-16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F78">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G78">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H78">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I78">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J78">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K78">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L78">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M78">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N78">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O78">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>1.6543612251060553E-16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E79">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F79">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G79">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H79">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I79">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J79">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K79">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L79">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M79">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N79">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O79">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>8.2718061255302767E-17</v>
-      </c>
-      <c r="C80" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F80">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G80">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H80">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I80">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J80">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K80">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L80">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M80">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N80">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O80">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>4.1359030627651384E-17</v>
-      </c>
-      <c r="C81" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F81">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G81">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H81">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I81">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J81">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K81">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L81">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M81">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N81">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O81">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>2.0679515313825692E-17</v>
-      </c>
-      <c r="C82" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F82">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G82">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H82">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I82">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J82">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K82">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L82">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M82">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N82">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O82">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>1.0339757656912846E-17</v>
-      </c>
-      <c r="C83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" t="s">
-        <v>54</v>
-      </c>
-      <c r="E83">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F83">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G83">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H83">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I83">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J83">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K83">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L83">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M83">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N83">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O83">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>5.169878828456423E-18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F84">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G84">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H84">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I84">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J84">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K84">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L84">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M84">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N84">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O84">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>2.5849394142282115E-18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F85">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G85">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H85">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I85">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J85">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K85">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L85">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M85">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N85">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O85">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>1.2924697071141057E-18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E86">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F86">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G86">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H86">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I86">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J86">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K86">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L86">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M86">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N86">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O86">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>6.4623485355705287E-19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E87">
-        <v>389.54618823140612</v>
-      </c>
-      <c r="F87">
-        <v>-7.00333138399699</v>
-      </c>
-      <c r="G87">
-        <v>-0.19966686160030089</v>
-      </c>
-      <c r="H87">
-        <v>-8.752717433608133</v>
-      </c>
-      <c r="I87">
-        <v>-0.13309178367927699</v>
-      </c>
-      <c r="J87">
-        <v>-0.3452265731955656</v>
-      </c>
-      <c r="K87">
-        <v>-1.0115743711048406</v>
-      </c>
-      <c r="L87">
-        <v>-0.49710640722378985</v>
-      </c>
-      <c r="M87">
-        <v>-0.64250256628707469</v>
-      </c>
-      <c r="N87">
-        <v>-9.3693650959902897E-7</v>
-      </c>
-      <c r="O87">
-        <v>-0.32640434974961263</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/+aae550/+hw1/partII_c.xlsx
+++ b/+aae550/+hw1/partII_c.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad\+aae550\+hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassatterly/Grad/+aae550/+hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
   <si>
     <t>Minimization</t>
   </si>
@@ -189,14 +195,28 @@
   </si>
   <si>
     <t>0.40017     0.39011</t>
+  </si>
+  <si>
+    <t>Total Iterations:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,8 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,69 +531,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:Q67"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -580,37 +615,37 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>587.56349141875319</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>-7.7786810685191039</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>-0.12213189314808948</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>-9.6264462490983291</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>-5.5427000080148447E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>-0.48113094853684968</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>-1.7752406924044126</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>-0.30618982689889684</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>-0.76299947496625808</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>-0.39164373113319373</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>-0.62640659863370751</v>
       </c>
       <c r="P2">
@@ -620,8 +655,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3">
@@ -633,37 +668,37 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>613.89974962435451</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>-7.7450230432518019</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>-0.12549769567481972</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>-9.5671148195643347</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>-6.0700904927614818E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-0.50804228912784555</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>-1.9133118760033549</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>-0.27167203099916126</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>-0.77317116424248633</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>-0.41450690784174138</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>-0.63906308849624915</v>
       </c>
       <c r="P3">
@@ -673,8 +708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4">
@@ -686,37 +721,37 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>582.77449982258838</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-7.6915739589553596</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>-0.13084260410446402</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>-9.5168743619387133</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>-6.5166723383225489E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>-0.48739530442019463</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>-1.7807446940438907</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>-0.30481382648902733</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>-0.76105291608323533</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>-0.38026203059089603</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>-0.61560285333951981</v>
       </c>
       <c r="P4">
@@ -726,8 +761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5">
@@ -739,37 +774,37 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>614.95729232364238</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-7.6046902316449057</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>-0.1395309768355093</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>-9.3849004345232192</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>-7.6897739153491629E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>-0.52509190089733804</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>-1.9676988402633109</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>-0.25807528993417228</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>-0.77356440669399951</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>-0.40528327936574393</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>-0.62739782205040306</v>
       </c>
       <c r="P5">
@@ -779,8 +814,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6">
@@ -792,37 +827,37 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>572.03877574495209</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>-7.5185870355414419</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>-0.14814129644585583</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-9.2999896545131087</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>-8.4445364043279292E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>-0.4987179718675816</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>-1.7859531193095477</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>-0.30351172017261308</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>-0.7565704411113694</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>-0.35535207865908414</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>-0.59203256110879499</v>
       </c>
       <c r="P6">
@@ -832,8 +867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7">
@@ -845,37 +880,37 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>617.43220971945811</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>-7.4844333960741949</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>-0.15155666039258053</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>-9.2275865319107346</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>-9.0881197163490302E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>-0.54066144280232842</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>-2.0236417054560705</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>-0.24408957363598238</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>-0.77447524205937524</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>-0.39858180891366868</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>-0.61785850718624702</v>
       </c>
       <c r="P7">
@@ -885,8 +920,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8">
@@ -898,37 +933,37 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>581.59816292598191</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-7.435984949441826</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>-0.15640150505581729</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>-9.1872284366343493</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>-9.4468583410280083E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>-0.51707313655160347</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>-1.8620220013434783</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>-0.28449449966413043</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>-0.76057496533339619</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>-0.35895697537655413</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>-0.59034160125132706</v>
       </c>
       <c r="P8">
@@ -938,8 +973,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9">
@@ -951,37 +986,37 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>603.41519182934917</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>-7.4037556621134915</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>-0.15962443378865077</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>-9.1318001833378286</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>-9.9395539258859689E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>-0.5388217353178667</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>-1.9831551544322932</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>-0.25421121139192671</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>-0.76923601741993231</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>-0.378790019612125</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>-0.60149342786289273</v>
       </c>
       <c r="P9">
@@ -991,8 +1026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1004,37 +1039,37 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>580.1553244328793</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>-7.3670285279444165</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>-0.16329714720555821</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>-9.0988906668581961</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>-0.10232082961260469</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>-0.52398901710900325</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>-1.879159944578602</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-0.28021001385534949</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>-0.75998091248058131</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>-0.35175268449676322</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>-0.58232358005687535</v>
       </c>
       <c r="P10">
@@ -1044,8 +1079,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1057,37 +1092,37 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>566.477074372007</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>-7.3204414146622625</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>-0.16795585853377371</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>-9.0472537687089094</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>-0.10691077611476363</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>-0.51769220414747785</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>-1.8263839969513538</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>-0.29340400076216155</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>-0.75418406914944436</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>-0.33267733527021826</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>-0.56762558360830095</v>
       </c>
       <c r="P11">
@@ -1097,8 +1132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1110,37 +1145,37 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>557.08440015295014</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>-7.2519638054895452</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>-0.17480361945104539</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>-8.9646327447816265</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>-0.11425486713052213</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>-0.51759650639664556</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>-1.8025760966424507</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-0.29935597583938733</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>-0.75003949079535104</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>-0.31579948936299385</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>-0.55301128365638097</v>
       </c>
       <c r="P12">
@@ -1150,8 +1185,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1163,37 +1198,37 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>575.81301113566201</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>-7.2203917297500499</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>-0.17796082702499494</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>-8.9117334342289247</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>-0.11895702806854003</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>-0.53752858038781715</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>-1.910049823669103</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>-0.27248754408272424</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>-0.75817381802780137</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>-0.33455559671209789</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>-0.56359497399766267</v>
       </c>
       <c r="P13">
@@ -1203,8 +1238,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1216,37 +1251,37 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>568.79424496740523</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>-7.1925805289739344</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>-0.18074194710260649</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>-8.8802197780456691</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>-0.12175824195149609</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>-0.53489095974805445</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>-1.8840470653739958</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>-0.27898823365650105</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>-0.75518914969751083</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>-0.32419055795394147</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>-0.55529294763421544</v>
       </c>
       <c r="P14">
@@ -1256,8 +1291,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1269,37 +1304,37 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>568.31572119799137</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>-7.1700808288852524</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>-0.18299191711147467</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>-8.851375702649074</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>-0.12432215976452676</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>-0.53713156118942962</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>-1.8898026676599353</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>-0.27754933308501617</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>-0.75498352679507885</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>-0.32164536632087171</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>-0.55238882218089669</v>
       </c>
       <c r="P15">
@@ -1309,8 +1344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1322,37 +1357,37 @@
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>566.67359297167991</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>-7.147628541635525</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>-0.18523714583644746</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>-8.8233442371615496</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>-0.12681384558564013</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>-0.53838238062214872</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>-1.8895315190628601</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>-0.27761712023428498</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>-0.75427379678934559</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>-0.31774067213300228</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>-0.54857174134261877</v>
       </c>
       <c r="P16">
@@ -1362,8 +1397,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1375,37 +1410,37 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>561.11243308804592</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-7.1248522755710617</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>-0.18751477244289383</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>-8.797443987345023</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>-0.12911609001377566</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>-0.53633758522458597</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>-1.8689708569504258</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>-0.28275728576239356</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>-0.75183794123622616</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>-0.30915339090941174</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>-0.54160841404384441</v>
       </c>
       <c r="P17">
@@ -1415,8 +1450,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1428,37 +1463,37 @@
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>572.35739188246282</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>-7.1041931789767396</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>-0.18958068210232593</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>-8.7633310407024663</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>-0.13214835193755858</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>-0.54817373387366231</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>-1.9352834641476755</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>-0.26617913396308113</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>-0.75671629714533017</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>-0.32038319707286456</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>-0.54791010108050653</v>
       </c>
       <c r="P18">
@@ -1468,8 +1503,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1481,37 +1516,37 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>555.23313418532348</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>-7.0807564735758461</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>-0.19192435264241525</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>-8.7441431013043509</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>-0.13385394655072447</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>-0.53650620879304411</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>-1.8544199253236702</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>-0.28639501866908246</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>-0.74921022142534299</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>-0.29801945084309289</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>-0.5316790993160414</v>
       </c>
       <c r="P19">
@@ -1521,8 +1556,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1534,37 +1569,37 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>537.86767797529444</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>-7.0585595086016983</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>-0.19414404913983008</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>-8.7267685785450588</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>-0.13539834857377264</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>-0.52371518466835498</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>-1.7714464576565234</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>-0.30713838558586914</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>-0.74111033255129866</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>-0.27403621617961993</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>-0.51434482728848741</v>
       </c>
       <c r="P20">
@@ -1574,8 +1609,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1587,37 +1622,37 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>520.49493608402418</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>-7.0413729108992058</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>-0.1958627089100794</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>-8.715926592376853</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>-0.13636208067761313</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>-0.50942381044100271</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>-1.6863163699772374</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>-0.32842090750569064</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>-0.73246614780369645</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>-0.2489419264474757</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>-0.49648339548726206</v>
       </c>
       <c r="P21">
@@ -1627,8 +1662,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1640,37 +1675,37 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>489.17610806835711</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>-7.0266707257436618</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>-0.1973329274256338</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>-8.7174849913753647</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>-0.13622355632218985</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>-0.47890322930690721</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>-1.5268273264337004</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>-0.36829316839157489</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>-0.71533143607254235</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>-0.20093218978105742</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>-0.46331597422691284</v>
       </c>
       <c r="P22">
@@ -1680,8 +1715,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1693,37 +1728,37 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>463.81983702836493</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>-7.016569986036906</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>-0.19834300139630934</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>-8.7210944380738482</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>-0.13590271661565789</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>-0.45091739063449032</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>-1.3969443557782744</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>-0.40076391105543141</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>-0.69976398847446952</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>-0.1575185694957052</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>-0.4334448008882984</v>
       </c>
       <c r="P23">
@@ -1733,8 +1768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1746,37 +1781,37 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>440.59323261250404</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>-7.0106587269546488</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>-0.19893412730453508</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>-8.7287125737316522</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>-0.13522554900163086</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>-0.42195817477443887</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>-1.2768866796932685</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>-0.43077833007668287</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>-0.68393180838947976</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>-0.11376036785329002</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>-0.40357832526932202</v>
       </c>
       <c r="P24">
@@ -1786,12 +1821,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.9802322387695313</v>
+        <v>2.9802322387695312</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1799,37 +1834,37 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>425.3165049714101</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>-7.0074925138360573</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>-0.19925074861639425</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>-8.7346507008472436</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>-0.13469771548024512</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>-0.40107564350506031</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>-1.1977195315826314</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>-0.45057011710434214</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>-0.67257600787317051</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>-8.2461867545014278E-2</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>-0.38227089859645969</v>
       </c>
       <c r="P25">
@@ -1839,8 +1874,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1852,37 +1887,37 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>413.58842047115309</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>-7.0073401548959886</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>-0.19926598451040112</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>-8.74213414391774</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>-0.13403252054064541</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>-0.38363691775850406</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>-1.1363283976179703</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>-0.46591790059550742</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>-0.66328885559751383</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>-5.714776297134061E-2</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>-0.36521619471038291</v>
       </c>
       <c r="P26">
@@ -1892,8 +1927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1905,37 +1940,37 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>406.80974994984177</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>-7.0059042428889349</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>-0.19940957571110651</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>-8.7447266350342456</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>-0.13380207688584489</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>-0.37331584954743591</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>-1.1012293486153855</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>-0.47469266284615363</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>-0.65767687563601662</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>-4.1680588405052843E-2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>-0.35468705899243502</v>
       </c>
       <c r="P27">
@@ -1945,8 +1980,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1958,37 +1993,37 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>402.01926406823935</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>-7.0051720804244635</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>-0.19948279195755358</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>-8.7469211839729102</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>-0.13360700586907459</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>-0.36576609248213143</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>-1.0763513324613569</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>-0.48091216688466076</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>-0.65359676640613718</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>-3.0471421660347331E-2</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <v>-0.34707932101360184</v>
       </c>
       <c r="P28">
@@ -1998,8 +2033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2011,37 +2046,37 @@
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>398.33882706427039</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>-7.0045030223618223</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>-0.1995496977638177</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>-8.7484702326768495</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>-0.13346931265094675</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>-0.35985991996132449</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>-1.0572683622034349</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>-0.48568290944914128</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>-0.65039544752917178</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>-2.1662776529875361E-2</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <v>-0.34109214439441204</v>
       </c>
       <c r="P29">
@@ -2051,8 +2086,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2064,37 +2099,37 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>395.64295884057526</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>-7.0039257459888464</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>-0.19960742540111531</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>-8.7494929218625472</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>-0.13337840694555136</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>-0.3554784276034344</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>-1.0433140849880904</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>-0.4891714787529774</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>-0.64801274129701392</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>-1.5095293129712806E-2</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>-0.33662111733500633</v>
       </c>
       <c r="P30">
@@ -2104,8 +2139,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2117,37 +2152,37 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>393.73680795378232</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>-7.0040257639040764</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>-0.19959742360959232</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>-8.750867791374521</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>-0.13325619632226471</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>-0.35225983174399833</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>-1.033315308044592</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>-0.49167117298885199</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>-0.64630831683216328</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>-1.0463455683798029E-2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <v>-0.3335096890766317</v>
       </c>
       <c r="P31">
@@ -2157,8 +2192,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2170,37 +2205,37 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>392.69751240568365</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>-7.0040260232370031</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>-0.19959739767629969</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>-8.7515477284193732</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>-0.13319575747383361</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>-0.35050082527609239</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>-1.0278784050150489</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>-0.49303039874623777</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>-0.64537204073698851</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>-7.9119955075707127E-3</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <v>-0.33179120573986931</v>
       </c>
       <c r="P32">
@@ -2210,8 +2245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2223,37 +2258,37 @@
       <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>391.68594476793641</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>-7.0038702827238293</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>-0.19961297172761705</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>-8.7520094331878955</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>-0.13315471704996484</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>-0.34880582683821415</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>-1.0226273617351298</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>-0.49434315956621755</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>-0.64445597618704697</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>-5.3952190567947422E-3</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <v>-0.33008302651782362</v>
       </c>
       <c r="P33">
@@ -2263,8 +2298,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2276,37 +2311,37 @@
       <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>391.04913426513986</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>-7.0037148976760548</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>-0.19962851023239447</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>-8.7522265475185552</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>-0.1331354179983506</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>-0.34774386787026279</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>-1.0193365966121091</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>-0.49516585084697273</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>-0.64387685810253703</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>-3.7966556662691886E-3</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <v>-0.3289932859130702</v>
       </c>
       <c r="P34">
@@ -2316,8 +2351,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2329,37 +2364,37 @@
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>390.60829576111172</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>-7.0036030029692924</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>-0.19963969970307072</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>-8.7523712968831351</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>-0.13312255138816587</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>-0.34700741232366072</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>-1.0170596546278508</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>-0.49573508634303731</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>-0.64347485192116904</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>-2.6864145514953197E-3</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <v>-0.32823607596928328</v>
       </c>
       <c r="P35">
@@ -2369,8 +2404,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2382,37 +2417,37 @@
       <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>390.30125138144564</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>-7.003526933521691</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>-0.19964730664783081</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>-8.7524745067172081</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>-0.1331133771806926</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>-0.34649317507138899</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>-1.015473281479252</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>-0.49613167963018701</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>-0.64319431778487157</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <v>-1.9118936748379056E-3</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <v>-0.32770798955993741</v>
       </c>
       <c r="P36">
@@ -2422,8 +2457,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2435,37 +2470,37 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>390.08066114971899</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>-7.0034707212808751</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>-0.19965292787191247</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>-8.7525466533938889</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>-0.13310696414276546</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>-0.34612349306960655</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>-1.0143339856576459</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>-0.49641650358558853</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>-0.64299250078212133</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <v>-1.3544964584777386E-3</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <v>-0.32732781357284746</v>
       </c>
       <c r="P37">
@@ -2475,8 +2510,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2488,37 +2523,37 @@
       <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>389.98439886850468</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>-7.0034458537076283</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>-0.19965541462923708</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>-8.7525777044922073</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>-0.13310420404513712</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>-0.34596209486292517</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>-1.0138369011386326</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>-0.49654077471534186</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>-0.64290435931737433</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <v>-1.1110147922613889E-3</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <v>-0.32716171750829015</v>
       </c>
       <c r="P38">
@@ -2528,8 +2563,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2541,37 +2576,37 @@
       <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>389.9073689278847</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>-7.003425853707629</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>-0.19965741462923703</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>-8.7526024226787165</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>-0.13310200687300289</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>-0.3458329020635702</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>-1.013439155646557</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>-0.49664021108836076</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <v>-0.64283379638491245</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>-9.1607878343336058E-4</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <v>-0.32702872951186801</v>
       </c>
       <c r="P39">
@@ -2581,8 +2616,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2594,37 +2629,37 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>389.8305411028569</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>-7.0034058537076298</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>-0.19965941462923698</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>-8.7526270087207454</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>-0.1330998214470448</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>-0.34570400619340946</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>-1.0130424673103331</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>-0.49673938317241673</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>-0.6427633908269702</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>-7.2157065105671325E-4</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <v>-0.32689602906409376</v>
       </c>
       <c r="P40">
@@ -2634,8 +2669,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2647,37 +2682,37 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>389.75380439301853</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>-7.0033858537076306</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>-0.19966141462923692</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>-8.7526515351926815</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>-0.13309764131620616</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>-0.34557521644302802</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>-1.0126462555348557</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>-0.49683843611628609</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="3">
         <v>-0.64269304106391845</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>-5.2721355296425632E-4</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <v>-0.32676342968853789</v>
       </c>
       <c r="P41">
@@ -2687,8 +2722,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2700,37 +2735,37 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>389.67710113281083</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>-7.0033658537076313</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>-0.19966341462923687</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>-8.7526760397973096</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>-0.13309546312912812</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>-0.34544643360450367</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>-1.0122502186978419</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>-0.49693744532553952</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="3">
         <v>-0.64262269428060281</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>-3.328635472856778E-4</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <v>-0.32663083442766649</v>
       </c>
       <c r="P42">
@@ -2740,8 +2775,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2753,37 +2788,37 @@
       <c r="D43" t="s">
         <v>54</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>389.60037003176848</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>-7.0033458537076321</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>-0.19966541462923681</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>-8.7527005626070284</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>-0.13309328332381964</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>-0.3453175520671723</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>-1.0118540362200843</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>-0.49703649094497893</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="3">
         <v>-0.64255229425211913</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>-1.3836739752948191E-4</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <v>-0.32649814006216704</v>
       </c>
       <c r="P43">
@@ -2793,8 +2828,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2806,37 +2841,37 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>389.59312165055491</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>-7.0033439734811882</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>-0.19966560265188116</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>-8.7527028907742306</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>-0.13309307637562395</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>-0.34530537316396814</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>-1.0118166086180334</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>-0.49704584784549166</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="3">
         <v>-0.64254564250029378</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <v>-1.199916059237971E-4</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <v>-0.32648560399088211</v>
       </c>
       <c r="P44">
@@ -2846,8 +2881,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2859,37 +2894,37 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>389.58546408612727</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>-7.0033419734811879</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>-0.19966580265188116</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>-8.7527053328914626</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>-0.13309285929853676</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>-0.34529250853682725</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>-1.0117770716801875</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>-0.49705573207995313</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>-0.64253861497740439</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>-1.0057593780521401E-4</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <v>-0.32647235737805269</v>
       </c>
       <c r="P45">
@@ -2899,8 +2934,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2912,37 +2947,37 @@
       <c r="D46" t="s">
         <v>54</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>389.57781961381676</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>-7.0033399734811876</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>-0.19966600265188117</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>-8.752707766448987</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>-0.13309264298231227</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>-0.34527966597374649</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>-1.0117376032199874</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>-0.49706559919500315</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="3">
         <v>-0.64253159919399283</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>-8.1192254468454017E-5</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <v>-0.32645913230340984</v>
       </c>
       <c r="P46">
@@ -2952,8 +2987,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2965,37 +3000,37 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>389.5701830801745</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>-7.0033379734811874</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>-0.19966620265188118</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>-8.7527101948161814</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>-0.13309242712745051</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>-0.3452668365928222</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>-1.0116981762824282</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>-0.49707545592939295</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>-0.64252459042152521</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>-6.1827668677572056E-5</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <v>-0.32644592008618245</v>
       </c>
       <c r="P47">
@@ -3005,8 +3040,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3018,37 +3053,37 @@
       <c r="D48" t="s">
         <v>54</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>389.56255702159029</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>-7.0033359734811871</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>-0.19966640265188118</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>-8.7527126163347369</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>-0.13309221188135678</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>-0.34525402476849598</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>-1.0116588041339867</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>-0.49708529896650333</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="3">
         <v>-0.64251759098888006</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <v>-4.2488527633000039E-5</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <v>-0.32643272500182841</v>
       </c>
       <c r="P48">
@@ -3058,8 +3093,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3071,37 +3106,37 @@
       <c r="D49" t="s">
         <v>54</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>389.55495922055235</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>-7.0033339734811868</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>-0.19966660265188119</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>-8.7527150193783321</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>-0.13309199827748164</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>-0.34524126116200804</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>-1.0116195797852288</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>-0.49709510505369281</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>-0.6425106172195344</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>-2.3219319792322501E-5</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <v>-0.32641957701761026</v>
       </c>
       <c r="P49">
@@ -3111,8 +3146,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3124,37 +3159,37 @@
       <c r="D50" t="s">
         <v>54</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>389.55126297912415</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>-7.0033329734811876</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>-0.19966670265188113</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>-8.7527161537808524</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>-0.13309189744170191</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>-0.34523505617221262</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>-1.0116005045650587</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>-0.49709987385873533</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>-0.64250722446441899</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>-1.3841255269930741E-5</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <v>-0.32641317582698737</v>
       </c>
       <c r="P50">
@@ -3164,8 +3199,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3177,37 +3212,37 @@
       <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>389.54985534241047</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>-7.0033325576073491</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>-0.19966674423926511</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>-8.7527165408592751</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>-0.13309186303473108</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>-0.34523269898184095</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>-1.0115932491992838</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>-0.49710168770017904</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="3">
         <v>-0.64250593238792386</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>-1.026516596358551E-5</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <v>-0.32641073198556991</v>
       </c>
       <c r="P51">
@@ -3217,8 +3252,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3230,37 +3265,37 @@
       <c r="D52" t="s">
         <v>54</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>389.54918919492661</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>-7.0033323576073485</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>-0.1996667642392651</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>-8.7527167199459299</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>-0.13309184711591726</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>-0.34523158399919707</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>-1.0115898165060431</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>-0.49710254587348923</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="3">
         <v>-0.6425053209247602</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>-8.5723956320116201E-6</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <v>-0.32640957490918798</v>
       </c>
       <c r="P52">
@@ -3270,8 +3305,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3283,37 +3318,37 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>389.54849271141688</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>-7.003332157607348</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>-0.19966678423926509</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>-8.7527169188665113</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>-0.13309182943408782</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>-0.34523041670802179</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>-1.011586225141393</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>-0.49710344371465176</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="3">
         <v>-0.64250468161345109</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="3">
         <v>-6.8037271202525673E-6</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <v>-0.32640836670802131</v>
       </c>
       <c r="P53">
@@ -3323,8 +3358,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3336,37 +3371,37 @@
       <c r="D54" t="s">
         <v>54</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>389.54779111598327</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>-7.0033319576073492</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>-0.19966680423926508</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>-8.7527171211293098</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>-0.13309181145517246</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>-0.34522924059877225</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>-1.0115826070390086</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>-0.49710434824024785</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="3">
         <v>-0.64250403760750019</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="3">
         <v>-5.0222636112096097E-6</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="3">
         <v>-0.32640714988813202</v>
       </c>
       <c r="P54">
@@ -3376,8 +3411,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3389,37 +3424,37 @@
       <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>389.54710558030649</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>-7.0033317576073486</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>-0.19966682423926507</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>-8.7527173128921198</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>-0.13309179440958929</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>-0.34522809217536976</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>-1.0115790729365313</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>-0.49710523176586718</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="3">
         <v>-0.64250340834091402</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <v>-3.2809710746040111E-6</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="3">
         <v>-0.32640596012719858</v>
       </c>
       <c r="P55">
@@ -3429,8 +3464,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3442,37 +3477,37 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>389.54655554557235</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>-7.0033315741109377</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>-0.19966684258890621</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>-8.7527174372247583</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>-0.13309178335779925</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>-0.3452271746080704</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>-1.0115762433113082</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>-0.49710593917217294</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>-0.64250290345214367</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <v>-1.8808290842553532E-6</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="3">
         <v>-0.32640500155295338</v>
       </c>
       <c r="P56">
@@ -3482,8 +3517,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3495,37 +3530,37 @@
       <c r="D57" t="s">
         <v>54</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>389.54655554557235</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>-7.0033315741109377</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>-0.19966684258890621</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>-8.7527174372247583</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>-0.13309178335779925</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>-0.3452271746080704</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>-1.0115762433113082</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>-0.49710593917217294</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="3">
         <v>-0.64250290345214367</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <v>-1.8808290842553532E-6</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="3">
         <v>-0.32640500155295338</v>
       </c>
       <c r="P57">
@@ -3535,8 +3570,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3548,37 +3583,37 @@
       <c r="D58" t="s">
         <v>54</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P58">
@@ -3588,8 +3623,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3601,37 +3636,37 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P59">
@@ -3641,8 +3676,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3654,37 +3689,37 @@
       <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P60">
@@ -3694,8 +3729,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3707,37 +3742,37 @@
       <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P61">
@@ -3747,8 +3782,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3760,37 +3795,37 @@
       <c r="D62" t="s">
         <v>54</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P62">
@@ -3800,8 +3835,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3813,37 +3848,37 @@
       <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P63">
@@ -3853,8 +3888,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3866,37 +3901,37 @@
       <c r="D64" t="s">
         <v>54</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P64">
@@ -3906,8 +3941,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3919,37 +3954,37 @@
       <c r="D65" t="s">
         <v>54</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P65">
@@ -3959,8 +3994,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66">
@@ -3972,37 +4007,37 @@
       <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P66">
@@ -4012,8 +4047,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4025,37 +4060,37 @@
       <c r="D67" t="s">
         <v>54</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>389.54618823140612</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>-7.00333138399699</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>-0.19966686160030089</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>-8.752717433608133</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>-0.13309178367927699</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>-0.3452265731955656</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>-1.0115743711048406</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>-0.49710640722378985</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="3">
         <v>-0.64250256628707469</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <v>-9.3693650959902897E-7</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="3">
         <v>-0.32640434974961263</v>
       </c>
       <c r="P67">
@@ -4065,7 +4100,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="2">
+        <f>SUM(P2:P67)</f>
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N69:O69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>